--- a/_ConfigExcels/Datas/weapon_level.xlsx
+++ b/_ConfigExcels/Datas/weapon_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>伤害加成率（万分数）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁卡牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +101,14 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +190,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,29 +474,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
-    <col min="8" max="9" width="18.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
-    <col min="13" max="13" width="38.125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="35.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="23" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.125" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,9 +509,10 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,9 +525,9 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -527,11 +540,14 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1001</v>
       </c>
@@ -541,12 +557,12 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <f>D4/10000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
@@ -556,12 +572,12 @@
       <c r="D5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E9" si="0">D5/10000</f>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F9" si="0">D5/10000</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
@@ -571,18 +587,18 @@
       <c r="D6" s="2">
         <v>1000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>1002</v>
       </c>
@@ -592,12 +608,12 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>1002</v>
       </c>
@@ -607,7 +623,7 @@
       <c r="D9" s="2">
         <v>500</v>
       </c>
-      <c r="E9" s="8">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>

--- a/_ConfigExcels/Datas/weapon_level.xlsx
+++ b/_ConfigExcels/Datas/weapon_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>##var</t>
   </si>
@@ -80,7 +80,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>解锁卡牌</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1002</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁卡牌
+（只用于显示升级的钩子，1级的不显示）
+（实际解锁还是由card表管理）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup_unlock_card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?#ref=Tbcard.Card</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +140,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -166,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +228,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,14 +515,15 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="35.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
@@ -509,7 +548,9 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -525,9 +566,12 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="3"/>
@@ -557,6 +601,7 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="8">
         <f>D4/10000</f>
         <v>0</v>
@@ -571,6 +616,9 @@
       </c>
       <c r="D5" s="2">
         <v>500</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ref="F5:F9" si="0">D5/10000</f>

--- a/_ConfigExcels/Datas/weapon_level.xlsx
+++ b/_ConfigExcels/Datas/weapon_level.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/weapon_level.xlsx
+++ b/_ConfigExcels/Datas/weapon_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -56,28 +56,6 @@
   </si>
   <si>
     <t>等级</t>
-  </si>
-  <si>
-    <r>
-      <t>damage</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF3F3F3F"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_multi</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成率（万分数）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -105,6 +83,58 @@
   </si>
   <si>
     <t>int?#ref=Tbcard.Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升到本级的解锁消耗
+（满级之后会取最高的）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成率写死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级消耗写死</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成率
+（万分数）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -191,6 +221,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -198,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,14 +262,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +285,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -512,19 +580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="14.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="51.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="41.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.75" style="2" customWidth="1"/>
@@ -535,7 +603,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,15 +613,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -564,119 +632,163 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="8">
-        <f>D4/10000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" ref="F5:F9" si="0">D5/10000</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>E5/10000</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
       <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>500</v>
+      </c>
+      <c r="F6" s="6">
+        <f>E6/10000</f>
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="2">
         <v>1000</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
+      <c r="F7" s="6">
+        <f>E7/10000</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>1002</v>
       </c>
       <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <f>E9/10000</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E10" s="2">
         <v>500</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="6">
+        <f>E10/10000</f>
         <v>0.05</v>
       </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
